--- a/biology/Origine et évolution du vivant/Percomorpha/Percomorpha.xlsx
+++ b/biology/Origine et évolution du vivant/Percomorpha/Percomorpha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Percomorpha (du latin perca 'perche' et du grec ancien μορφή (morphḗ) 'forme, apparence') sont un grand clade de poissons à nageoires rayonnées qui comprend les thons, les hippocampes, les gobies, les cichlidés, les poissons plats, les napoléons, les perches, les baudroies, les poissons-globes[1],[2],[3],[4],[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Percomorpha (du latin perca 'perche' et du grec ancien μορφή (morphḗ) 'forme, apparence') sont un grand clade de poissons à nageoires rayonnées qui comprend les thons, les hippocampes, les gobies, les cichlidés, les poissons plats, les napoléons, les perches, les baudroies, les poissons-globes.
 </t>
         </is>
       </c>
@@ -511,11 +523,48 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Percomorpha sont aujourd'hui le groupe le plus diversifié de poissons téléostéens. Les téléostéens, et les percomorpha en particulier, ont prospéré pendant l'ère cénozoïque. Les preuves fossiles montrent qu'il y a eu une augmentation majeure de la taille et de l'abondance des téléostéens immédiatement après l'événement d'extinction de masse à la limite Crétacé-Paléogène, il y a 65 Ma[6].
-Phylogénie
-Le cladogramme ci-dessous est basé sur Ricardo Betancur-R. (d) et al., 2017[4], montrant les relations évolutives des différents groupes de poissons percomorphes existants :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Percomorpha sont aujourd'hui le groupe le plus diversifié de poissons téléostéens. Les téléostéens, et les percomorpha en particulier, ont prospéré pendant l'ère cénozoïque. Les preuves fossiles montrent qu'il y a eu une augmentation majeure de la taille et de l'abondance des téléostéens immédiatement après l'événement d'extinction de masse à la limite Crétacé-Paléogène, il y a 65 Ma.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Percomorpha</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Percomorpha</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Évolution</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme ci-dessous est basé sur Ricardo Betancur-R. (d) et al., 2017, montrant les relations évolutives des différents groupes de poissons percomorphes existants :
 </t>
         </is>
       </c>
